--- a/docs/stats/Light_regime_KW_table.xlsx
+++ b/docs/stats/Light_regime_KW_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessica.mccordic\Documents\GitHub\AMP_ves_summary\docs\stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B4281E-9CCD-4EEF-9050-71020785906F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFDE435-72ED-4FFF-A376-4B59AC19745C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7590" yWindow="2040" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,17 +28,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="12">
-  <si>
-    <t>Light total</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>Network</t>
   </si>
   <si>
-    <t>Chi sq</t>
-  </si>
-  <si>
     <t>df</t>
   </si>
   <si>
@@ -57,20 +51,32 @@
     <t>&lt; 0.05</t>
   </si>
   <si>
-    <t>Light inside</t>
-  </si>
-  <si>
     <t>NS</t>
   </si>
   <si>
-    <t>Light maneuvers</t>
+    <t>Total Vessels</t>
+  </si>
+  <si>
+    <t>Vessels Inside</t>
+  </si>
+  <si>
+    <t>Vessels Inside with Maneuvers</t>
+  </si>
+  <si>
+    <t>Kruskal-Wallis X2</t>
+  </si>
+  <si>
+    <t>NS: not significant at alpha = 0.05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,16 +84,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -95,12 +134,77 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,201 +485,228 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A3:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.08984375" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="10">
+        <v>695.6</v>
+      </c>
+      <c r="E5" s="10">
+        <v>3</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D6" s="13">
+        <v>210.3</v>
+      </c>
+      <c r="E6" s="13">
+        <v>3</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>695.6</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D7" s="13">
+        <v>740.3</v>
+      </c>
+      <c r="E7" s="13">
+        <v>3</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>210.3</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="10">
+        <v>232.2</v>
+      </c>
+      <c r="E8" s="10">
+        <v>3</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="13">
+        <v>7.7</v>
+      </c>
+      <c r="E9" s="13">
+        <v>3</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
-        <v>740.3</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="10" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="13">
+        <v>96.9</v>
+      </c>
+      <c r="E10" s="13">
+        <v>3</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="10">
+        <v>166.1</v>
+      </c>
+      <c r="E11" s="10">
+        <v>3</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="D12" s="14">
+        <v>7</v>
+      </c>
+      <c r="E12" s="13">
+        <v>3</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B12">
-        <v>232.2</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="D13" s="17">
+        <v>62.9</v>
+      </c>
+      <c r="E13" s="17">
+        <v>3</v>
+      </c>
+      <c r="F13" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B13">
-        <v>7.7</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>96.9</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20">
-        <v>166.1</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21">
-        <v>7</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22">
-        <v>62.9</v>
-      </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:F14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>